--- a/Bugy.xlsx
+++ b/Bugy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danielm\Documents\ZP MER0103\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D199195-ABF2-4DC1-8813-58DD1271532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A864F-0C6F-423D-A778-A6B2EC4182FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{06D4CDA8-DCE7-4FCD-9C8A-97A228BDAC8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>opraveno</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>"By design" - pravidlo žádné přímé spojení s neterminály a terminály vážně nemá, pouze jsou součástí stejného objektu -&gt; načtené bezkontextové gramatiky.</t>
+  </si>
+  <si>
+    <t>Namísto "accessed" parametru jsem použil "urldate" parametr.</t>
   </si>
 </sst>
 </file>
@@ -885,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97E2C01-3801-4643-94BA-AD6C64BE965C}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,9 +1329,11 @@
         <v>4</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="26">

--- a/Bugy.xlsx
+++ b/Bugy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danielm\Documents\ZP MER0103\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A864F-0C6F-423D-A778-A6B2EC4182FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4C2B41-C3BD-4459-A4B6-575F45DF7CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{06D4CDA8-DCE7-4FCD-9C8A-97A228BDAC8F}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{06D4CDA8-DCE7-4FCD-9C8A-97A228BDAC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>opraveno</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Zarovnání LR(0) a LL(1) tabulky</t>
   </si>
   <si>
-    <t>použit jiný element, např. Columns nebo Table?</t>
-  </si>
-  <si>
     <t>U citovaných URL odkazů chybí datum citování</t>
   </si>
   <si>
@@ -195,12 +192,6 @@
     <t>Díky úpravě chování a načítání již tlačítko dělá to co má.</t>
   </si>
   <si>
-    <t>Zatím opraveno u Redukce, odstranění epsilon a jednoduchých pravidel</t>
-  </si>
-  <si>
-    <t>Rozpracováno - parser již akceptuje i pravidla s mezerami a ještě tomu přizpůsobuji zbylé algoritmy (FIRST, FOLLOW, Greibach, Konstrukce zasobnikoveho automatu)</t>
-  </si>
-  <si>
     <t>Výsledné pravidla gramatiky jsou řazeny podle pořadí neterminálů ve vstupní CFG a dílčí pravidla daného neterminálu jsou rozdělena znakem |</t>
   </si>
   <si>
@@ -214,6 +205,42 @@
   </si>
   <si>
     <t>Namísto "accessed" parametru jsem použil "urldate" parametr.</t>
+  </si>
+  <si>
+    <t>Dle zjištěných konfliktů program vypisuje jestli CFG je nebo není daného typu.</t>
+  </si>
+  <si>
+    <t>funkce generování ekvivalentního nedeterministického PDA opravena</t>
+  </si>
+  <si>
+    <t>přidána podpora víceznakých neterminálů</t>
+  </si>
+  <si>
+    <t>Program již za žádné situace nepadá a v UI se vypisují informace, pokud se něco při parsování nepodaří.</t>
+  </si>
+  <si>
+    <t>Program při špatné syntaxi CFG vypíše, kterou část gramatiky se nepodařilo načíst.</t>
+  </si>
+  <si>
+    <t>Bug v implementaci opraven</t>
+  </si>
+  <si>
+    <t>CFG je zobrazena v okně programu a uživatel již vidí s čím pracuje.</t>
+  </si>
+  <si>
+    <t>přidána transformace do CNF a GNF</t>
+  </si>
+  <si>
+    <t>opraveno - program vypisuje parsovací tabulky zarovnané do tabulky</t>
+  </si>
+  <si>
+    <t>Program vypisuje pomocné množiny po zaškrtnutí "Show interim results"</t>
+  </si>
+  <si>
+    <t>Ve složce CFG Exampels je 16 ukázkových gramatik</t>
+  </si>
+  <si>
+    <t>Program zobrazuje chybovou zprávu s informacemi</t>
   </si>
 </sst>
 </file>
@@ -888,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97E2C01-3801-4643-94BA-AD6C64BE965C}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,10 +1003,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>1</v>
@@ -988,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -999,9 +1026,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="23">
         <v>2</v>
@@ -1037,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="23">
@@ -1065,9 +1094,11 @@
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="23">
         <v>4</v>
@@ -1079,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="21"/>
@@ -1095,9 +1126,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="23">
         <v>5</v>
@@ -1127,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="23">
@@ -1159,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="23">
@@ -1190,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="23">
@@ -1206,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="75" x14ac:dyDescent="0.25">
@@ -1223,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="23">
@@ -1239,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="75" x14ac:dyDescent="0.25">
@@ -1253,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="23">
@@ -1284,9 +1317,11 @@
         <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="23">
         <v>11</v>
@@ -1313,17 +1348,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="1"/>
       <c r="G13" s="23">
         <v>12</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>4</v>
@@ -1332,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="75" x14ac:dyDescent="0.25">
@@ -1346,9 +1379,11 @@
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="23">
         <v>13</v>
@@ -1369,9 +1404,11 @@
         <v>3</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="23">
         <v>14</v>
@@ -1395,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="23">
@@ -1417,9 +1454,11 @@
         <v>3</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="23">
         <v>16</v>
@@ -1440,9 +1479,11 @@
         <v>3</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="23">
         <v>17</v>
@@ -1463,9 +1504,11 @@
         <v>3</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="23">
         <v>18</v>
@@ -1475,7 +1518,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -1486,9 +1529,11 @@
         <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="23">
         <v>19</v>
@@ -1498,7 +1543,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -1509,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="23">
